--- a/data/allmidata_alphia.xlsx
+++ b/data/allmidata_alphia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essing/Library/CloudStorage/Dropbox/Desktop/Active/MetabolicIndexMetaAnalysis/Metabolic_Index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC7F159-6B3B-F641-AA9D-0AFF385BA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E4D3BF-EAF3-B346-81B6-38AFD87EE702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="1080" windowWidth="30240" windowHeight="18880" xr2:uid="{D15C8168-1587-2D4F-B187-41610D7369BC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D15C8168-1587-2D4F-B187-41610D7369BC}"/>
   </bookViews>
   <sheets>
     <sheet name="allmidata_alphia" sheetId="1" r:id="rId1"/>
@@ -512,12 +512,6 @@
     <t>gaussia princeps</t>
   </si>
   <si>
-    <t>gennadas sp.</t>
-  </si>
-  <si>
-    <t>genera</t>
-  </si>
-  <si>
     <t>Wishner et al. (2018)</t>
   </si>
   <si>
@@ -656,9 +650,6 @@
     <t>Cerezo Valverde et al. (2012)</t>
   </si>
   <si>
-    <t>megacalanus sp.</t>
-  </si>
-  <si>
     <t>melanostigma pammelas</t>
   </si>
   <si>
@@ -696,9 +687,6 @@
   </si>
   <si>
     <t>Myoxocephalus scorpius</t>
-  </si>
-  <si>
-    <t>mytilus spc</t>
   </si>
   <si>
     <t>Artigaud et al. (2014)</t>
@@ -1237,6 +1225,18 @@
       </rPr>
       <t>). Comparative Biochemistry and Physiology Part A: Molecular &amp; Integrative Physiology 231:140–148.</t>
     </r>
+  </si>
+  <si>
+    <t>gennadas spp</t>
+  </si>
+  <si>
+    <t>megacalanus spp</t>
+  </si>
+  <si>
+    <t>mytilus spp</t>
+  </si>
+  <si>
+    <t>genus</t>
   </si>
 </sst>
 </file>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E72782-A120-F840-A5CD-EC4187C2FE32}">
   <dimension ref="A1:N523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E436" sqref="E436"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -2596,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -2631,7 +2631,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
@@ -2701,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -2976,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B38">
         <v>28</v>
@@ -3691,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
@@ -3726,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
@@ -3761,7 +3761,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
@@ -4006,7 +4006,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -4782,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -5283,7 +5283,7 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
@@ -5494,7 +5494,7 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -5529,7 +5529,7 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
@@ -5669,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -5704,7 +5704,7 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
@@ -5739,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -6070,7 +6070,7 @@
         <v>20</v>
       </c>
       <c r="L98" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M98" t="s">
         <v>103</v>
@@ -6114,7 +6114,7 @@
         <v>20</v>
       </c>
       <c r="L99" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M99" t="s">
         <v>103</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B100">
         <v>20</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B101">
         <v>20</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B102">
         <v>20</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B104">
         <v>20</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B105">
         <v>20</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B106">
         <v>20</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B107">
         <v>20</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B108">
         <v>20</v>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B109">
         <v>20</v>
@@ -6493,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -6528,7 +6528,7 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -6563,7 +6563,7 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
@@ -6598,7 +6598,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H113" t="s">
         <v>17</v>
@@ -6633,7 +6633,7 @@
         <v>15</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
@@ -6668,7 +6668,7 @@
         <v>15</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
@@ -6703,7 +6703,7 @@
         <v>15</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
@@ -6738,7 +6738,7 @@
         <v>15</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
@@ -6773,7 +6773,7 @@
         <v>15</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
@@ -6808,7 +6808,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
@@ -6843,7 +6843,7 @@
         <v>15</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
@@ -7247,7 +7247,7 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
@@ -7288,7 +7288,7 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B144">
         <v>15</v>
@@ -7845,7 +7845,7 @@
         <v>269166</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B154">
         <v>4.5</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -8941,10 +8941,10 @@
         <v>106813</v>
       </c>
       <c r="F173" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G173" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H173" t="s">
         <v>17</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="B174">
         <v>10</v>
@@ -8985,10 +8985,10 @@
         <v>106813</v>
       </c>
       <c r="F174" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G174" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H174" t="s">
         <v>17</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B175">
         <v>14</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B176">
         <v>20</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B177">
         <v>28</v>
@@ -9120,7 +9120,7 @@
         <v>15</v>
       </c>
       <c r="G177" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H177" t="s">
         <v>17</v>
@@ -9135,10 +9135,10 @@
         <v>20</v>
       </c>
       <c r="L177" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M177" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N177" t="s">
         <v>23</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B178">
         <v>33</v>
@@ -9164,7 +9164,7 @@
         <v>15</v>
       </c>
       <c r="G178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H178" t="s">
         <v>17</v>
@@ -9179,10 +9179,10 @@
         <v>20</v>
       </c>
       <c r="L178" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M178" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N178" t="s">
         <v>23</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B179">
         <v>28</v>
@@ -9208,7 +9208,7 @@
         <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H179" t="s">
         <v>17</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B180">
         <v>28</v>
@@ -9243,7 +9243,7 @@
         <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H180" t="s">
         <v>17</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B181">
         <v>28</v>
@@ -9278,7 +9278,7 @@
         <v>15</v>
       </c>
       <c r="G181" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H181" t="s">
         <v>17</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B182">
         <v>28</v>
@@ -9313,7 +9313,7 @@
         <v>15</v>
       </c>
       <c r="G182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H182" t="s">
         <v>17</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B183">
         <v>27</v>
@@ -9348,7 +9348,7 @@
         <v>15</v>
       </c>
       <c r="G183" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H183" t="s">
         <v>17</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B184">
         <v>29</v>
@@ -9383,7 +9383,7 @@
         <v>15</v>
       </c>
       <c r="G184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H184" t="s">
         <v>17</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B185">
         <v>31</v>
@@ -9418,7 +9418,7 @@
         <v>15</v>
       </c>
       <c r="G185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H185" t="s">
         <v>17</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B186">
         <v>32</v>
@@ -9453,7 +9453,7 @@
         <v>15</v>
       </c>
       <c r="G186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H186" t="s">
         <v>17</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B187">
         <v>33</v>
@@ -9488,7 +9488,7 @@
         <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H187" t="s">
         <v>17</v>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B188">
         <v>28</v>
@@ -9523,7 +9523,7 @@
         <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H188" t="s">
         <v>17</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B189">
         <v>27</v>
@@ -9558,7 +9558,7 @@
         <v>15</v>
       </c>
       <c r="G189" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H189" t="s">
         <v>17</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B190">
         <v>29</v>
@@ -9593,7 +9593,7 @@
         <v>15</v>
       </c>
       <c r="G190" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H190" t="s">
         <v>17</v>
@@ -9608,7 +9608,7 @@
         <v>20</v>
       </c>
       <c r="L190" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M190" t="s">
         <v>34</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B191">
         <v>31</v>
@@ -9637,7 +9637,7 @@
         <v>15</v>
       </c>
       <c r="G191" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H191" t="s">
         <v>17</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B192">
         <v>32</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="G192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H192" t="s">
         <v>17</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B193">
         <v>33</v>
@@ -9707,7 +9707,7 @@
         <v>15</v>
       </c>
       <c r="G193" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H193" t="s">
         <v>17</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B194">
         <v>28</v>
@@ -9742,7 +9742,7 @@
         <v>15</v>
       </c>
       <c r="G194" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H194" t="s">
         <v>17</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B195">
         <v>28</v>
@@ -9777,7 +9777,7 @@
         <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H195" t="s">
         <v>17</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B196">
         <v>12.5</v>
@@ -9812,7 +9812,7 @@
         <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H196" t="s">
         <v>17</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B197">
         <v>24</v>
@@ -9847,7 +9847,7 @@
         <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H197" t="s">
         <v>17</v>
@@ -9862,10 +9862,10 @@
         <v>20</v>
       </c>
       <c r="L197" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N197" t="s">
         <v>23</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B198">
         <v>29</v>
@@ -9891,7 +9891,7 @@
         <v>15</v>
       </c>
       <c r="G198" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H198" t="s">
         <v>17</v>
@@ -9906,10 +9906,10 @@
         <v>20</v>
       </c>
       <c r="L198" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M198" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N198" t="s">
         <v>23</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B199">
         <v>32</v>
@@ -9935,7 +9935,7 @@
         <v>15</v>
       </c>
       <c r="G199" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H199" t="s">
         <v>17</v>
@@ -9950,10 +9950,10 @@
         <v>20</v>
       </c>
       <c r="L199" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M199" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N199" t="s">
         <v>23</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B200">
         <v>35</v>
@@ -9979,7 +9979,7 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H200" t="s">
         <v>17</v>
@@ -9994,10 +9994,10 @@
         <v>20</v>
       </c>
       <c r="L200" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M200" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N200" t="s">
         <v>23</v>
@@ -10005,7 +10005,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B201">
         <v>28</v>
@@ -10023,7 +10023,7 @@
         <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H201" t="s">
         <v>17</v>
@@ -10040,7 +10040,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B202">
         <v>20</v>
@@ -10058,27 +10058,27 @@
         <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H202" t="s">
         <v>42</v>
       </c>
       <c r="I202" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K202" t="s">
         <v>44</v>
       </c>
       <c r="L202" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M202" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B203">
         <v>28</v>
@@ -10096,27 +10096,27 @@
         <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H203" t="s">
         <v>42</v>
       </c>
       <c r="I203" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K203" t="s">
         <v>44</v>
       </c>
       <c r="L203" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M203" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B204">
         <v>12</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B205">
         <v>20</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B206">
         <v>16</v>
@@ -10248,7 +10248,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B207">
         <v>25</v>
@@ -10266,7 +10266,7 @@
         <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H207" t="s">
         <v>17</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B208">
         <v>25</v>
@@ -10301,7 +10301,7 @@
         <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H208" t="s">
         <v>17</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B209">
         <v>28</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B210">
         <v>10</v>
@@ -10371,7 +10371,7 @@
         <v>15</v>
       </c>
       <c r="G210" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H210" t="s">
         <v>17</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B211">
         <v>15</v>
@@ -10412,7 +10412,7 @@
         <v>15</v>
       </c>
       <c r="G211" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H211" t="s">
         <v>17</v>
@@ -10435,7 +10435,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B212">
         <v>28</v>
@@ -10453,7 +10453,7 @@
         <v>15</v>
       </c>
       <c r="G212" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H212" t="s">
         <v>17</v>
@@ -10470,7 +10470,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B213">
         <v>28</v>
@@ -10488,7 +10488,7 @@
         <v>15</v>
       </c>
       <c r="G213" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H213" t="s">
         <v>17</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B214">
         <v>28</v>
@@ -10523,7 +10523,7 @@
         <v>15</v>
       </c>
       <c r="G214" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H214" t="s">
         <v>17</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B215">
         <v>30</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B216">
         <v>10</v>
@@ -10593,7 +10593,7 @@
         <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H216" t="s">
         <v>17</v>
@@ -10608,7 +10608,7 @@
         <v>20</v>
       </c>
       <c r="L216" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M216" t="s">
         <v>48</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B217">
         <v>30</v>
@@ -10637,7 +10637,7 @@
         <v>15</v>
       </c>
       <c r="G217" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H217" t="s">
         <v>17</v>
@@ -10652,7 +10652,7 @@
         <v>20</v>
       </c>
       <c r="L217" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M217" t="s">
         <v>48</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B218">
         <v>15</v>
@@ -10681,7 +10681,7 @@
         <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H218" t="s">
         <v>17</v>
@@ -10696,7 +10696,7 @@
         <v>20</v>
       </c>
       <c r="L218" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M218" t="s">
         <v>48</v>
@@ -10707,7 +10707,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B219">
         <v>25</v>
@@ -10725,7 +10725,7 @@
         <v>15</v>
       </c>
       <c r="G219" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H219" t="s">
         <v>17</v>
@@ -10740,7 +10740,7 @@
         <v>20</v>
       </c>
       <c r="L219" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M219" t="s">
         <v>48</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B220">
         <v>20</v>
@@ -10769,7 +10769,7 @@
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H220" t="s">
         <v>17</v>
@@ -10784,7 +10784,7 @@
         <v>20</v>
       </c>
       <c r="L220" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M220" t="s">
         <v>48</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B221">
         <v>12</v>
@@ -10830,7 +10830,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B222">
         <v>12</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B223">
         <v>12</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -10927,7 +10927,7 @@
         <v>15</v>
       </c>
       <c r="G224" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H224" t="s">
         <v>17</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B225">
         <v>8</v>
@@ -10971,7 +10971,7 @@
         <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H225" t="s">
         <v>17</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B226">
         <v>15</v>
@@ -11015,13 +11015,13 @@
         <v>15</v>
       </c>
       <c r="G226" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H226" t="s">
         <v>17</v>
       </c>
       <c r="I226" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J226" t="s">
         <v>19</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B227">
         <v>15</v>
@@ -11050,7 +11050,7 @@
         <v>15</v>
       </c>
       <c r="G227" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H227" t="s">
         <v>77</v>
@@ -11059,12 +11059,12 @@
         <v>77</v>
       </c>
       <c r="M227" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B228">
         <v>20</v>
@@ -11082,7 +11082,7 @@
         <v>15</v>
       </c>
       <c r="G228" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H228" t="s">
         <v>77</v>
@@ -11091,12 +11091,12 @@
         <v>77</v>
       </c>
       <c r="M228" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B229">
         <v>25</v>
@@ -11114,7 +11114,7 @@
         <v>15</v>
       </c>
       <c r="G229" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H229" t="s">
         <v>77</v>
@@ -11123,12 +11123,12 @@
         <v>77</v>
       </c>
       <c r="M229" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B230">
         <v>23.06</v>
@@ -11146,7 +11146,7 @@
         <v>15</v>
       </c>
       <c r="G230" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H230" t="s">
         <v>17</v>
@@ -11169,7 +11169,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B231">
         <v>23.06</v>
@@ -11187,7 +11187,7 @@
         <v>15</v>
       </c>
       <c r="G231" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H231" t="s">
         <v>42</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B232">
         <v>18.75</v>
@@ -11225,7 +11225,7 @@
         <v>15</v>
       </c>
       <c r="G232" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H232" t="s">
         <v>17</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B233">
         <v>18.75</v>
@@ -11266,7 +11266,7 @@
         <v>15</v>
       </c>
       <c r="G233" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H233" t="s">
         <v>42</v>
@@ -11286,7 +11286,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B234">
         <v>22.61</v>
@@ -11304,7 +11304,7 @@
         <v>15</v>
       </c>
       <c r="G234" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H234" t="s">
         <v>17</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B235">
         <v>22.61</v>
@@ -11345,7 +11345,7 @@
         <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H235" t="s">
         <v>42</v>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B236">
         <v>22.14</v>
@@ -11383,7 +11383,7 @@
         <v>15</v>
       </c>
       <c r="G236" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H236" t="s">
         <v>17</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B237">
         <v>22.14</v>
@@ -11424,7 +11424,7 @@
         <v>15</v>
       </c>
       <c r="G237" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H237" t="s">
         <v>42</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B238">
         <v>18.739999999999998</v>
@@ -11462,7 +11462,7 @@
         <v>15</v>
       </c>
       <c r="G238" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H238" t="s">
         <v>17</v>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B239">
         <v>18.739999999999998</v>
@@ -11503,7 +11503,7 @@
         <v>15</v>
       </c>
       <c r="G239" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H239" t="s">
         <v>42</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B240">
         <v>18.57</v>
@@ -11541,7 +11541,7 @@
         <v>15</v>
       </c>
       <c r="G240" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H240" t="s">
         <v>17</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B241">
         <v>25.95</v>
@@ -11582,7 +11582,7 @@
         <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H241" t="s">
         <v>17</v>
@@ -11605,7 +11605,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B242">
         <v>18.57</v>
@@ -11623,7 +11623,7 @@
         <v>15</v>
       </c>
       <c r="G242" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H242" t="s">
         <v>42</v>
@@ -11643,7 +11643,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B243">
         <v>25.95</v>
@@ -11661,7 +11661,7 @@
         <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H243" t="s">
         <v>42</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B244">
         <v>25.66</v>
@@ -11699,7 +11699,7 @@
         <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H244" t="s">
         <v>17</v>
@@ -11722,7 +11722,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B245">
         <v>25.28</v>
@@ -11740,7 +11740,7 @@
         <v>15</v>
       </c>
       <c r="G245" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H245" t="s">
         <v>42</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B246">
         <v>26.33</v>
@@ -11778,7 +11778,7 @@
         <v>15</v>
       </c>
       <c r="G246" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H246" t="s">
         <v>17</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B247">
         <v>26.33</v>
@@ -11819,7 +11819,7 @@
         <v>15</v>
       </c>
       <c r="G247" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H247" t="s">
         <v>42</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B248">
         <v>18.670000000000002</v>
@@ -11857,7 +11857,7 @@
         <v>15</v>
       </c>
       <c r="G248" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H248" t="s">
         <v>17</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B249">
         <v>18.670000000000002</v>
@@ -11898,7 +11898,7 @@
         <v>15</v>
       </c>
       <c r="G249" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H249" t="s">
         <v>42</v>
@@ -11918,7 +11918,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B250">
         <v>19.29</v>
@@ -11936,7 +11936,7 @@
         <v>15</v>
       </c>
       <c r="G250" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H250" t="s">
         <v>17</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B251">
         <v>19.29</v>
@@ -11977,7 +11977,7 @@
         <v>15</v>
       </c>
       <c r="G251" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H251" t="s">
         <v>42</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B252">
         <v>21.83</v>
@@ -12015,7 +12015,7 @@
         <v>15</v>
       </c>
       <c r="G252" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H252" t="s">
         <v>17</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B253">
         <v>21.83</v>
@@ -12056,7 +12056,7 @@
         <v>15</v>
       </c>
       <c r="G253" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H253" t="s">
         <v>42</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B254">
         <v>17.79</v>
@@ -12094,7 +12094,7 @@
         <v>15</v>
       </c>
       <c r="G254" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H254" t="s">
         <v>17</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B255">
         <v>17.79</v>
@@ -12135,7 +12135,7 @@
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H255" t="s">
         <v>42</v>
@@ -12155,7 +12155,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B256">
         <v>25.28</v>
@@ -12173,7 +12173,7 @@
         <v>15</v>
       </c>
       <c r="G256" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H256" t="s">
         <v>17</v>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B257">
         <v>25.28</v>
@@ -12214,7 +12214,7 @@
         <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H257" t="s">
         <v>42</v>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="B258">
         <v>10</v>
@@ -12249,10 +12249,10 @@
         <v>104187</v>
       </c>
       <c r="F258" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G258" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H258" t="s">
         <v>17</v>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="B259">
         <v>5</v>
@@ -12293,10 +12293,10 @@
         <v>104187</v>
       </c>
       <c r="F259" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G259" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H259" t="s">
         <v>17</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -12340,7 +12340,7 @@
         <v>15</v>
       </c>
       <c r="G260" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H260" t="s">
         <v>17</v>
@@ -12355,7 +12355,7 @@
         <v>20</v>
       </c>
       <c r="M260" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N260" t="s">
         <v>28</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B261">
         <v>5</v>
@@ -12381,7 +12381,7 @@
         <v>15</v>
       </c>
       <c r="G261" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H261" t="s">
         <v>17</v>
@@ -12396,7 +12396,7 @@
         <v>20</v>
       </c>
       <c r="M261" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N261" t="s">
         <v>28</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -12422,7 +12422,7 @@
         <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H262" t="s">
         <v>17</v>
@@ -12437,7 +12437,7 @@
         <v>20</v>
       </c>
       <c r="M262" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N262" t="s">
         <v>28</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B263">
         <v>10</v>
@@ -12463,7 +12463,7 @@
         <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H263" t="s">
         <v>17</v>
@@ -12478,7 +12478,7 @@
         <v>20</v>
       </c>
       <c r="M263" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N263" t="s">
         <v>28</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B264">
         <v>12</v>
@@ -12504,24 +12504,24 @@
         <v>15</v>
       </c>
       <c r="G264" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H264" t="s">
         <v>42</v>
       </c>
       <c r="I264" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K264" t="s">
         <v>44</v>
       </c>
       <c r="M264" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B265">
         <v>18.5</v>
@@ -12539,24 +12539,24 @@
         <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H265" t="s">
         <v>42</v>
       </c>
       <c r="I265" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K265" t="s">
         <v>44</v>
       </c>
       <c r="M265" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B266">
         <v>25</v>
@@ -12574,24 +12574,24 @@
         <v>15</v>
       </c>
       <c r="G266" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H266" t="s">
         <v>42</v>
       </c>
       <c r="I266" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K266" t="s">
         <v>44</v>
       </c>
       <c r="M266" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B267">
         <v>20</v>
@@ -12609,7 +12609,7 @@
         <v>15</v>
       </c>
       <c r="G267" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H267" t="s">
         <v>17</v>
@@ -12624,7 +12624,7 @@
         <v>20</v>
       </c>
       <c r="L267" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M267" t="s">
         <v>48</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B268">
         <v>25</v>
@@ -12653,7 +12653,7 @@
         <v>15</v>
       </c>
       <c r="G268" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H268" t="s">
         <v>17</v>
@@ -12668,7 +12668,7 @@
         <v>20</v>
       </c>
       <c r="L268" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M268" t="s">
         <v>48</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B269">
         <v>15</v>
@@ -12697,7 +12697,7 @@
         <v>15</v>
       </c>
       <c r="G269" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H269" t="s">
         <v>17</v>
@@ -12712,7 +12712,7 @@
         <v>20</v>
       </c>
       <c r="L269" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M269" t="s">
         <v>48</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B270">
         <v>30</v>
@@ -12741,7 +12741,7 @@
         <v>15</v>
       </c>
       <c r="G270" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H270" t="s">
         <v>17</v>
@@ -12756,7 +12756,7 @@
         <v>20</v>
       </c>
       <c r="L270" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M270" t="s">
         <v>48</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B271">
         <v>10</v>
@@ -12785,7 +12785,7 @@
         <v>15</v>
       </c>
       <c r="G271" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H271" t="s">
         <v>17</v>
@@ -12800,7 +12800,7 @@
         <v>20</v>
       </c>
       <c r="L271" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M271" t="s">
         <v>48</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B272">
         <v>20</v>
@@ -12829,7 +12829,7 @@
         <v>15</v>
       </c>
       <c r="G272" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H272" t="s">
         <v>17</v>
@@ -12846,7 +12846,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B273">
         <v>28</v>
@@ -12864,7 +12864,7 @@
         <v>15</v>
       </c>
       <c r="G273" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H273" t="s">
         <v>17</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B274">
         <v>20</v>
@@ -12899,7 +12899,7 @@
         <v>15</v>
       </c>
       <c r="G274" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H274" t="s">
         <v>17</v>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B275">
         <v>28</v>
@@ -12934,7 +12934,7 @@
         <v>15</v>
       </c>
       <c r="G275" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H275" t="s">
         <v>17</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B276">
         <v>20</v>
@@ -12969,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="G276" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H276" t="s">
         <v>17</v>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B277">
         <v>28</v>
@@ -13004,7 +13004,7 @@
         <v>15</v>
       </c>
       <c r="G277" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H277" t="s">
         <v>17</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B278">
         <v>12</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="B279">
         <v>10</v>
@@ -13080,10 +13080,10 @@
         <v>138228</v>
       </c>
       <c r="F279" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G279" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H279" t="s">
         <v>17</v>
@@ -13098,7 +13098,7 @@
         <v>20</v>
       </c>
       <c r="M279" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N279" t="s">
         <v>23</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="B280">
         <v>18</v>
@@ -13121,10 +13121,10 @@
         <v>138228</v>
       </c>
       <c r="F280" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G280" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H280" t="s">
         <v>17</v>
@@ -13139,7 +13139,7 @@
         <v>20</v>
       </c>
       <c r="M280" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N280" t="s">
         <v>23</v>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="B281">
         <v>25</v>
@@ -13162,10 +13162,10 @@
         <v>138228</v>
       </c>
       <c r="F281" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="G281" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H281" t="s">
         <v>17</v>
@@ -13180,7 +13180,7 @@
         <v>20</v>
       </c>
       <c r="M281" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N281" t="s">
         <v>23</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B282">
         <v>11</v>
@@ -13206,7 +13206,7 @@
         <v>15</v>
       </c>
       <c r="G282" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H282" t="s">
         <v>17</v>
@@ -13221,7 +13221,7 @@
         <v>20</v>
       </c>
       <c r="M282" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N282" t="s">
         <v>23</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B283">
         <v>16</v>
@@ -13247,7 +13247,7 @@
         <v>15</v>
       </c>
       <c r="G283" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H283" t="s">
         <v>17</v>
@@ -13262,7 +13262,7 @@
         <v>20</v>
       </c>
       <c r="M283" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N283" t="s">
         <v>23</v>
@@ -13270,7 +13270,7 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B284">
         <v>21</v>
@@ -13288,7 +13288,7 @@
         <v>15</v>
       </c>
       <c r="G284" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H284" t="s">
         <v>17</v>
@@ -13303,7 +13303,7 @@
         <v>20</v>
       </c>
       <c r="M284" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N284" t="s">
         <v>23</v>
@@ -13311,7 +13311,7 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B285">
         <v>20</v>
@@ -13329,7 +13329,7 @@
         <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H285" t="s">
         <v>17</v>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B286">
         <v>10</v>
@@ -13373,7 +13373,7 @@
         <v>15</v>
       </c>
       <c r="G286" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H286" t="s">
         <v>17</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B287">
         <v>12</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B288">
         <v>16</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B289">
         <v>27</v>
@@ -13531,7 +13531,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B290">
         <v>31</v>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B291">
         <v>24</v>
@@ -13619,7 +13619,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B292">
         <v>20</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B293">
         <v>28</v>
@@ -13681,7 +13681,7 @@
         <v>15</v>
       </c>
       <c r="G293" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H293" t="s">
         <v>17</v>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B294">
         <v>28</v>
@@ -13716,7 +13716,7 @@
         <v>15</v>
       </c>
       <c r="G294" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H294" t="s">
         <v>17</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B295">
         <v>28</v>
@@ -13751,7 +13751,7 @@
         <v>15</v>
       </c>
       <c r="G295" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H295" t="s">
         <v>17</v>
@@ -13768,7 +13768,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B296">
         <v>28</v>
@@ -13786,7 +13786,7 @@
         <v>15</v>
       </c>
       <c r="G296" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H296" t="s">
         <v>17</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B297">
         <v>28</v>
@@ -13821,7 +13821,7 @@
         <v>15</v>
       </c>
       <c r="G297" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H297" t="s">
         <v>17</v>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B298">
         <v>28</v>
@@ -13856,7 +13856,7 @@
         <v>15</v>
       </c>
       <c r="G298" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H298" t="s">
         <v>17</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B299">
         <v>5</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B300">
         <v>10</v>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B301">
         <v>5</v>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B302">
         <v>10</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B303">
         <v>12.25</v>
@@ -14055,7 +14055,7 @@
         <v>15</v>
       </c>
       <c r="G303" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H303" t="s">
         <v>17</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B304">
         <v>13.05</v>
@@ -14099,7 +14099,7 @@
         <v>15</v>
       </c>
       <c r="G304" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H304" t="s">
         <v>17</v>
@@ -14125,7 +14125,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B305">
         <v>14.55</v>
@@ -14143,7 +14143,7 @@
         <v>15</v>
       </c>
       <c r="G305" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H305" t="s">
         <v>17</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B306">
         <v>15.45</v>
@@ -14187,7 +14187,7 @@
         <v>15</v>
       </c>
       <c r="G306" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H306" t="s">
         <v>17</v>
@@ -14213,7 +14213,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B307">
         <v>16.95</v>
@@ -14231,7 +14231,7 @@
         <v>15</v>
       </c>
       <c r="G307" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H307" t="s">
         <v>17</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B308">
         <v>18.350000000000001</v>
@@ -14275,7 +14275,7 @@
         <v>15</v>
       </c>
       <c r="G308" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H308" t="s">
         <v>17</v>
@@ -14301,7 +14301,7 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B309">
         <v>20.8</v>
@@ -14319,7 +14319,7 @@
         <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H309" t="s">
         <v>42</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B310">
         <v>20.8</v>
@@ -14354,7 +14354,7 @@
         <v>15</v>
       </c>
       <c r="G310" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H310" t="s">
         <v>17</v>
@@ -14380,7 +14380,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B311">
         <v>20.7</v>
@@ -14398,7 +14398,7 @@
         <v>15</v>
       </c>
       <c r="G311" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H311" t="s">
         <v>42</v>
@@ -14415,7 +14415,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B312">
         <v>20.7</v>
@@ -14433,7 +14433,7 @@
         <v>15</v>
       </c>
       <c r="G312" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H312" t="s">
         <v>17</v>
@@ -14459,7 +14459,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B313">
         <v>20.399999999999999</v>
@@ -14477,7 +14477,7 @@
         <v>15</v>
       </c>
       <c r="G313" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H313" t="s">
         <v>42</v>
@@ -14494,7 +14494,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B314">
         <v>20.399999999999999</v>
@@ -14512,7 +14512,7 @@
         <v>15</v>
       </c>
       <c r="G314" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H314" t="s">
         <v>17</v>
@@ -14538,7 +14538,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B315">
         <v>17.100000000000001</v>
@@ -14556,7 +14556,7 @@
         <v>15</v>
       </c>
       <c r="G315" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H315" t="s">
         <v>42</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B316">
         <v>17.600000000000001</v>
@@ -14591,7 +14591,7 @@
         <v>15</v>
       </c>
       <c r="G316" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H316" t="s">
         <v>42</v>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B317">
         <v>17.3</v>
@@ -14626,7 +14626,7 @@
         <v>15</v>
       </c>
       <c r="G317" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H317" t="s">
         <v>42</v>
@@ -14643,7 +14643,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B318">
         <v>17.100000000000001</v>
@@ -14661,7 +14661,7 @@
         <v>15</v>
       </c>
       <c r="G318" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H318" t="s">
         <v>42</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B319">
         <v>20.5</v>
@@ -14696,7 +14696,7 @@
         <v>15</v>
       </c>
       <c r="G319" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H319" t="s">
         <v>42</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B320">
         <v>20.5</v>
@@ -14731,7 +14731,7 @@
         <v>15</v>
       </c>
       <c r="G320" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H320" t="s">
         <v>17</v>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B321">
         <v>23.4</v>
@@ -14775,7 +14775,7 @@
         <v>15</v>
       </c>
       <c r="G321" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H321" t="s">
         <v>42</v>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B322">
         <v>23.4</v>
@@ -14810,7 +14810,7 @@
         <v>15</v>
       </c>
       <c r="G322" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H322" t="s">
         <v>17</v>
@@ -14836,7 +14836,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B323">
         <v>19.2</v>
@@ -14854,7 +14854,7 @@
         <v>15</v>
       </c>
       <c r="G323" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H323" t="s">
         <v>17</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B324">
         <v>23.7</v>
@@ -14898,7 +14898,7 @@
         <v>15</v>
       </c>
       <c r="G324" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H324" t="s">
         <v>42</v>
@@ -14915,7 +14915,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B325">
         <v>23.7</v>
@@ -14933,7 +14933,7 @@
         <v>15</v>
       </c>
       <c r="G325" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H325" t="s">
         <v>17</v>
@@ -14959,7 +14959,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B326">
         <v>20</v>
@@ -14977,7 +14977,7 @@
         <v>15</v>
       </c>
       <c r="G326" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H326" t="s">
         <v>42</v>
@@ -14994,7 +14994,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B327">
         <v>20</v>
@@ -15012,7 +15012,7 @@
         <v>15</v>
       </c>
       <c r="G327" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H327" t="s">
         <v>17</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B328">
         <v>27.4</v>
@@ -15056,7 +15056,7 @@
         <v>15</v>
       </c>
       <c r="G328" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H328" t="s">
         <v>42</v>
@@ -15073,7 +15073,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B329">
         <v>27.4</v>
@@ -15091,7 +15091,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H329" t="s">
         <v>17</v>
@@ -15117,7 +15117,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B330">
         <v>27.3</v>
@@ -15135,7 +15135,7 @@
         <v>15</v>
       </c>
       <c r="G330" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H330" t="s">
         <v>42</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B331">
         <v>27.3</v>
@@ -15170,7 +15170,7 @@
         <v>15</v>
       </c>
       <c r="G331" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H331" t="s">
         <v>17</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B332">
         <v>18.899999999999999</v>
@@ -15214,7 +15214,7 @@
         <v>15</v>
       </c>
       <c r="G332" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H332" t="s">
         <v>42</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B333">
         <v>18.899999999999999</v>
@@ -15249,7 +15249,7 @@
         <v>15</v>
       </c>
       <c r="G333" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H333" t="s">
         <v>17</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B334">
         <v>19.100000000000001</v>
@@ -15293,7 +15293,7 @@
         <v>15</v>
       </c>
       <c r="G334" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H334" t="s">
         <v>42</v>
@@ -15310,7 +15310,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B335">
         <v>20</v>
@@ -15328,7 +15328,7 @@
         <v>15</v>
       </c>
       <c r="G335" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H335" t="s">
         <v>42</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B336">
         <v>23.7</v>
@@ -15363,7 +15363,7 @@
         <v>15</v>
       </c>
       <c r="G336" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H336" t="s">
         <v>42</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B337">
         <v>19.100000000000001</v>
@@ -15398,7 +15398,7 @@
         <v>15</v>
       </c>
       <c r="G337" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>17</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B338">
         <v>20</v>
@@ -15442,7 +15442,7 @@
         <v>15</v>
       </c>
       <c r="G338" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>17</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B339">
         <v>23.7</v>
@@ -15486,7 +15486,7 @@
         <v>15</v>
       </c>
       <c r="G339" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H339" t="s">
         <v>17</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B340">
         <v>19</v>
@@ -15530,7 +15530,7 @@
         <v>15</v>
       </c>
       <c r="G340" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H340" t="s">
         <v>42</v>
@@ -15547,7 +15547,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B341">
         <v>19</v>
@@ -15565,7 +15565,7 @@
         <v>15</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H341" t="s">
         <v>17</v>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B342">
         <v>15.7</v>
@@ -15609,7 +15609,7 @@
         <v>15</v>
       </c>
       <c r="G342" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H342" t="s">
         <v>42</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B343">
         <v>15.5</v>
@@ -15644,7 +15644,7 @@
         <v>15</v>
       </c>
       <c r="G343" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H343" t="s">
         <v>42</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B344">
         <v>27</v>
@@ -15679,7 +15679,7 @@
         <v>15</v>
       </c>
       <c r="G344" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H344" t="s">
         <v>42</v>
@@ -15696,7 +15696,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B345">
         <v>27</v>
@@ -15714,7 +15714,7 @@
         <v>15</v>
       </c>
       <c r="G345" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H345" t="s">
         <v>17</v>
@@ -15740,7 +15740,7 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B346">
         <v>12</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B347">
         <v>20</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B348">
         <v>16</v>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B349">
         <v>12</v>
@@ -15916,7 +15916,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B350">
         <v>12</v>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B351">
         <v>20</v>
@@ -15978,7 +15978,7 @@
         <v>15</v>
       </c>
       <c r="G351" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H351" t="s">
         <v>17</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B352">
         <v>15</v>
@@ -16013,7 +16013,7 @@
         <v>15</v>
       </c>
       <c r="G352" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H352" t="s">
         <v>17</v>
@@ -16030,7 +16030,7 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B353">
         <v>10</v>
@@ -16048,7 +16048,7 @@
         <v>15</v>
       </c>
       <c r="G353" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H353" t="s">
         <v>17</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B354">
         <v>10</v>
@@ -16083,7 +16083,7 @@
         <v>15</v>
       </c>
       <c r="G354" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H354" t="s">
         <v>17</v>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B355">
         <v>12</v>
@@ -16118,7 +16118,7 @@
         <v>15</v>
       </c>
       <c r="G355" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H355" t="s">
         <v>17</v>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B356">
         <v>12</v>
@@ -16153,7 +16153,7 @@
         <v>15</v>
       </c>
       <c r="G356" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H356" t="s">
         <v>17</v>
@@ -16170,7 +16170,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B357">
         <v>12</v>
@@ -16188,7 +16188,7 @@
         <v>15</v>
       </c>
       <c r="G357" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H357" t="s">
         <v>17</v>
@@ -16205,7 +16205,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B358">
         <v>12</v>
@@ -16223,7 +16223,7 @@
         <v>15</v>
       </c>
       <c r="G358" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H358" t="s">
         <v>17</v>
@@ -16240,7 +16240,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B359">
         <v>29</v>
@@ -16258,7 +16258,7 @@
         <v>15</v>
       </c>
       <c r="G359" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H359" t="s">
         <v>17</v>
@@ -16273,10 +16273,10 @@
         <v>20</v>
       </c>
       <c r="L359" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M359" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N359" t="s">
         <v>23</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B360">
         <v>32</v>
@@ -16302,7 +16302,7 @@
         <v>15</v>
       </c>
       <c r="G360" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H360" t="s">
         <v>17</v>
@@ -16317,10 +16317,10 @@
         <v>20</v>
       </c>
       <c r="L360" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M360" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N360" t="s">
         <v>23</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B361">
         <v>29</v>
@@ -16346,7 +16346,7 @@
         <v>15</v>
       </c>
       <c r="G361" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H361" t="s">
         <v>17</v>
@@ -16361,10 +16361,10 @@
         <v>20</v>
       </c>
       <c r="L361" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M361" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N361" t="s">
         <v>23</v>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B362">
         <v>32</v>
@@ -16390,7 +16390,7 @@
         <v>15</v>
       </c>
       <c r="G362" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H362" t="s">
         <v>17</v>
@@ -16405,10 +16405,10 @@
         <v>20</v>
       </c>
       <c r="L362" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M362" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N362" t="s">
         <v>23</v>
@@ -16416,7 +16416,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B363">
         <v>5</v>
@@ -16460,7 +16460,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B364">
         <v>10</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B365">
         <v>20</v>
@@ -16548,7 +16548,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B366">
         <v>5</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B367">
         <v>10</v>
@@ -16630,7 +16630,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B368">
         <v>20</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B369">
         <v>22</v>
@@ -16689,7 +16689,7 @@
         <v>15</v>
       </c>
       <c r="G369" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H369" t="s">
         <v>17</v>
@@ -16706,7 +16706,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B370">
         <v>28</v>
@@ -16724,7 +16724,7 @@
         <v>15</v>
       </c>
       <c r="G370" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H370" t="s">
         <v>17</v>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B371">
         <v>28</v>
@@ -16759,7 +16759,7 @@
         <v>15</v>
       </c>
       <c r="G371" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H371" t="s">
         <v>17</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B372">
         <v>28</v>
@@ -16794,7 +16794,7 @@
         <v>15</v>
       </c>
       <c r="G372" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H372" t="s">
         <v>17</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B373">
         <v>-1.5</v>
@@ -16829,7 +16829,7 @@
         <v>15</v>
       </c>
       <c r="G373" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H373" t="s">
         <v>17</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B374">
         <v>21</v>
@@ -16864,13 +16864,13 @@
         <v>15</v>
       </c>
       <c r="G374" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H374" t="s">
         <v>17</v>
       </c>
       <c r="I374" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J374" t="s">
         <v>143</v>
@@ -16881,7 +16881,7 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B375">
         <v>21</v>
@@ -16899,13 +16899,13 @@
         <v>15</v>
       </c>
       <c r="G375" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H375" t="s">
         <v>17</v>
       </c>
       <c r="I375" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J375" t="s">
         <v>143</v>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B376">
         <v>18</v>
@@ -16931,24 +16931,24 @@
         <v>15</v>
       </c>
       <c r="G376" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H376" t="s">
         <v>42</v>
       </c>
       <c r="I376" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K376" t="s">
         <v>44</v>
       </c>
       <c r="M376" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B377">
         <v>24</v>
@@ -16963,24 +16963,24 @@
         <v>15</v>
       </c>
       <c r="G377" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H377" t="s">
         <v>42</v>
       </c>
       <c r="I377" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K377" t="s">
         <v>44</v>
       </c>
       <c r="M377" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B378">
         <v>25</v>
@@ -16995,24 +16995,24 @@
         <v>15</v>
       </c>
       <c r="G378" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H378" t="s">
         <v>42</v>
       </c>
       <c r="I378" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K378" t="s">
         <v>44</v>
       </c>
       <c r="M378" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B379">
         <v>5</v>
@@ -17030,7 +17030,7 @@
         <v>15</v>
       </c>
       <c r="G379" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H379" t="s">
         <v>17</v>
@@ -17045,10 +17045,10 @@
         <v>20</v>
       </c>
       <c r="L379" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M379" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N379" t="s">
         <v>23</v>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B380">
         <v>8</v>
@@ -17074,7 +17074,7 @@
         <v>15</v>
       </c>
       <c r="G380" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H380" t="s">
         <v>17</v>
@@ -17089,10 +17089,10 @@
         <v>20</v>
       </c>
       <c r="L380" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M380" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N380" t="s">
         <v>23</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B381">
         <v>5</v>
@@ -17118,7 +17118,7 @@
         <v>15</v>
       </c>
       <c r="G381" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H381" t="s">
         <v>17</v>
@@ -17133,10 +17133,10 @@
         <v>20</v>
       </c>
       <c r="L381" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M381" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N381" t="s">
         <v>23</v>
@@ -17144,7 +17144,7 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B382">
         <v>8</v>
@@ -17162,7 +17162,7 @@
         <v>15</v>
       </c>
       <c r="G382" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H382" t="s">
         <v>17</v>
@@ -17177,10 +17177,10 @@
         <v>20</v>
       </c>
       <c r="L382" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M382" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N382" t="s">
         <v>23</v>
@@ -17188,7 +17188,7 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B383">
         <v>10</v>
@@ -17206,7 +17206,7 @@
         <v>15</v>
       </c>
       <c r="G383" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H383" t="s">
         <v>17</v>
@@ -17232,7 +17232,7 @@
     </row>
     <row r="384" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B384">
         <v>5</v>
@@ -17250,7 +17250,7 @@
         <v>15</v>
       </c>
       <c r="G384" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H384" t="s">
         <v>17</v>
@@ -17276,7 +17276,7 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B385">
         <v>15</v>
@@ -17294,7 +17294,7 @@
         <v>15</v>
       </c>
       <c r="G385" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H385" t="s">
         <v>17</v>
@@ -17309,10 +17309,10 @@
         <v>20</v>
       </c>
       <c r="L385" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M385" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N385" t="s">
         <v>23</v>
@@ -17320,7 +17320,7 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B386">
         <v>23</v>
@@ -17338,7 +17338,7 @@
         <v>15</v>
       </c>
       <c r="G386" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H386" t="s">
         <v>17</v>
@@ -17353,10 +17353,10 @@
         <v>20</v>
       </c>
       <c r="L386" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M386" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N386" t="s">
         <v>23</v>
@@ -17364,7 +17364,7 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B387">
         <v>31</v>
@@ -17382,7 +17382,7 @@
         <v>15</v>
       </c>
       <c r="G387" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H387" t="s">
         <v>17</v>
@@ -17397,10 +17397,10 @@
         <v>20</v>
       </c>
       <c r="L387" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M387" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N387" t="s">
         <v>23</v>
@@ -17408,7 +17408,7 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B388">
         <v>20</v>
@@ -17426,7 +17426,7 @@
         <v>15</v>
       </c>
       <c r="G388" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H388" t="s">
         <v>17</v>
@@ -17441,10 +17441,10 @@
         <v>20</v>
       </c>
       <c r="L388" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M388" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N388" t="s">
         <v>23</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B389">
         <v>27</v>
@@ -17470,7 +17470,7 @@
         <v>15</v>
       </c>
       <c r="G389" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H389" t="s">
         <v>17</v>
@@ -17485,10 +17485,10 @@
         <v>20</v>
       </c>
       <c r="L389" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M389" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N389" t="s">
         <v>23</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B390">
         <v>30</v>
@@ -17514,7 +17514,7 @@
         <v>15</v>
       </c>
       <c r="G390" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H390" t="s">
         <v>77</v>
@@ -17523,15 +17523,15 @@
         <v>77</v>
       </c>
       <c r="L390" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M390" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B391">
         <v>20</v>
@@ -17549,7 +17549,7 @@
         <v>15</v>
       </c>
       <c r="G391" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H391" t="s">
         <v>77</v>
@@ -17558,15 +17558,15 @@
         <v>77</v>
       </c>
       <c r="L391" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M391" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B392">
         <v>10</v>
@@ -17584,7 +17584,7 @@
         <v>15</v>
       </c>
       <c r="G392" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H392" t="s">
         <v>77</v>
@@ -17593,15 +17593,15 @@
         <v>77</v>
       </c>
       <c r="L392" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M392" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B393">
         <v>28</v>
@@ -17619,7 +17619,7 @@
         <v>15</v>
       </c>
       <c r="G393" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H393" t="s">
         <v>17</v>
@@ -17636,7 +17636,7 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B394">
         <v>22</v>
@@ -17654,7 +17654,7 @@
         <v>15</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H394" t="s">
         <v>17</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B395">
         <v>30</v>
@@ -17689,7 +17689,7 @@
         <v>15</v>
       </c>
       <c r="G395" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H395" t="s">
         <v>17</v>
@@ -17706,7 +17706,7 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B396">
         <v>28</v>
@@ -17724,7 +17724,7 @@
         <v>15</v>
       </c>
       <c r="G396" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H396" t="s">
         <v>17</v>
@@ -17741,7 +17741,7 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B397">
         <v>28</v>
@@ -17759,7 +17759,7 @@
         <v>15</v>
       </c>
       <c r="G397" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H397" t="s">
         <v>17</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B398">
         <v>28</v>
@@ -17794,7 +17794,7 @@
         <v>15</v>
       </c>
       <c r="G398" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H398" t="s">
         <v>17</v>
@@ -17811,7 +17811,7 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B399">
         <v>10</v>
@@ -17829,7 +17829,7 @@
         <v>15</v>
       </c>
       <c r="G399" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H399" t="s">
         <v>17</v>
@@ -17844,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="M399" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N399" t="s">
         <v>23</v>
@@ -17852,7 +17852,7 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B400">
         <v>18</v>
@@ -17870,7 +17870,7 @@
         <v>15</v>
       </c>
       <c r="G400" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H400" t="s">
         <v>17</v>
@@ -17885,7 +17885,7 @@
         <v>20</v>
       </c>
       <c r="M400" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N400" t="s">
         <v>23</v>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B401">
         <v>25</v>
@@ -17911,7 +17911,7 @@
         <v>15</v>
       </c>
       <c r="G401" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H401" t="s">
         <v>17</v>
@@ -17926,7 +17926,7 @@
         <v>20</v>
       </c>
       <c r="M401" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="N401" t="s">
         <v>23</v>
@@ -17934,7 +17934,7 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B402">
         <v>20</v>
@@ -17949,18 +17949,18 @@
         <v>15</v>
       </c>
       <c r="G402" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H402" t="s">
         <v>77</v>
       </c>
       <c r="M402" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B403">
         <v>30</v>
@@ -17975,18 +17975,18 @@
         <v>15</v>
       </c>
       <c r="G403" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H403" t="s">
         <v>77</v>
       </c>
       <c r="M403" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B404">
         <v>5</v>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B405">
         <v>10</v>
@@ -18068,7 +18068,7 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B406">
         <v>20</v>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B407">
         <v>14</v>
@@ -18153,7 +18153,7 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B408">
         <v>20</v>
@@ -18197,7 +18197,7 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B409">
         <v>10</v>
@@ -18215,13 +18215,13 @@
         <v>15</v>
       </c>
       <c r="G409" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H409" t="s">
         <v>17</v>
       </c>
       <c r="I409" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J409" t="s">
         <v>143</v>
@@ -18232,7 +18232,7 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B410">
         <v>10</v>
@@ -18250,7 +18250,7 @@
         <v>15</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H410" t="s">
         <v>17</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B411">
         <v>15</v>
@@ -18291,7 +18291,7 @@
         <v>15</v>
       </c>
       <c r="G411" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H411" t="s">
         <v>17</v>
@@ -18314,7 +18314,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B412">
         <v>20</v>
@@ -18332,7 +18332,7 @@
         <v>15</v>
       </c>
       <c r="G412" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H412" t="s">
         <v>17</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B413">
         <v>25</v>
@@ -18373,7 +18373,7 @@
         <v>15</v>
       </c>
       <c r="G413" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H413" t="s">
         <v>17</v>
@@ -18396,7 +18396,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B414">
         <v>25</v>
@@ -18414,7 +18414,7 @@
         <v>15</v>
       </c>
       <c r="G414" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H414" t="s">
         <v>17</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B415">
         <v>25</v>
@@ -18449,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="G415" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H415" t="s">
         <v>17</v>
@@ -18466,7 +18466,7 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B416">
         <v>28</v>
@@ -18484,7 +18484,7 @@
         <v>15</v>
       </c>
       <c r="G416" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H416" t="s">
         <v>17</v>
@@ -18501,7 +18501,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B417">
         <v>28</v>
@@ -18519,7 +18519,7 @@
         <v>15</v>
       </c>
       <c r="G417" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H417" t="s">
         <v>17</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B418">
         <v>29</v>
@@ -18571,7 +18571,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B419">
         <v>29</v>
@@ -18606,7 +18606,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B420">
         <v>29</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B421">
         <v>28</v>
@@ -18659,7 +18659,7 @@
         <v>15</v>
       </c>
       <c r="G421" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H421" t="s">
         <v>17</v>
@@ -18676,7 +18676,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B422">
         <v>28</v>
@@ -18694,7 +18694,7 @@
         <v>15</v>
       </c>
       <c r="G422" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H422" t="s">
         <v>17</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B423">
         <v>28</v>
@@ -18729,7 +18729,7 @@
         <v>15</v>
       </c>
       <c r="G423" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H423" t="s">
         <v>17</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B424">
         <v>28</v>
@@ -18764,7 +18764,7 @@
         <v>15</v>
       </c>
       <c r="G424" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H424" t="s">
         <v>17</v>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B425">
         <v>28</v>
@@ -18799,7 +18799,7 @@
         <v>15</v>
       </c>
       <c r="G425" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H425" t="s">
         <v>17</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B426">
         <v>28</v>
@@ -18834,7 +18834,7 @@
         <v>15</v>
       </c>
       <c r="G426" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H426" t="s">
         <v>17</v>
@@ -18851,7 +18851,7 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B427">
         <v>28</v>
@@ -18869,7 +18869,7 @@
         <v>15</v>
       </c>
       <c r="G427" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H427" t="s">
         <v>17</v>
@@ -18886,7 +18886,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B428">
         <v>28</v>
@@ -18904,7 +18904,7 @@
         <v>15</v>
       </c>
       <c r="G428" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H428" t="s">
         <v>17</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B429">
         <v>28</v>
@@ -18939,7 +18939,7 @@
         <v>15</v>
       </c>
       <c r="G429" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H429" t="s">
         <v>17</v>
@@ -18956,7 +18956,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B430">
         <v>28</v>
@@ -18974,7 +18974,7 @@
         <v>15</v>
       </c>
       <c r="G430" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H430" t="s">
         <v>17</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B431">
         <v>28</v>
@@ -19009,7 +19009,7 @@
         <v>15</v>
       </c>
       <c r="G431" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H431" t="s">
         <v>17</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B432">
         <v>18.5</v>
@@ -19044,24 +19044,24 @@
         <v>15</v>
       </c>
       <c r="G432" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H432" t="s">
         <v>42</v>
       </c>
       <c r="I432" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K432" t="s">
         <v>44</v>
       </c>
       <c r="M432" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B433">
         <v>25</v>
@@ -19079,24 +19079,24 @@
         <v>15</v>
       </c>
       <c r="G433" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H433" t="s">
         <v>42</v>
       </c>
       <c r="I433" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K433" t="s">
         <v>44</v>
       </c>
       <c r="M433" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B434">
         <v>12</v>
@@ -19114,24 +19114,24 @@
         <v>15</v>
       </c>
       <c r="G434" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H434" t="s">
         <v>42</v>
       </c>
       <c r="I434" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K434" t="s">
         <v>44</v>
       </c>
       <c r="M434" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B435">
         <v>5</v>
@@ -19149,7 +19149,7 @@
         <v>15</v>
       </c>
       <c r="G435" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H435" t="s">
         <v>17</v>
@@ -19166,7 +19166,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B436">
         <v>5</v>
@@ -19184,7 +19184,7 @@
         <v>15</v>
       </c>
       <c r="G436" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H436" t="s">
         <v>17</v>
@@ -19201,7 +19201,7 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B437">
         <v>14</v>
@@ -19219,7 +19219,7 @@
         <v>15</v>
       </c>
       <c r="G437" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H437" t="s">
         <v>17</v>
@@ -19236,7 +19236,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B438">
         <v>18</v>
@@ -19254,7 +19254,7 @@
         <v>15</v>
       </c>
       <c r="G438" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H438" t="s">
         <v>17</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B439">
         <v>22</v>
@@ -19289,7 +19289,7 @@
         <v>15</v>
       </c>
       <c r="G439" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H439" t="s">
         <v>17</v>
@@ -19306,7 +19306,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B440">
         <v>6</v>
@@ -19324,13 +19324,13 @@
         <v>15</v>
       </c>
       <c r="G440" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>17</v>
       </c>
       <c r="I440" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J440" t="s">
         <v>19</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B441">
         <v>18</v>
@@ -19359,13 +19359,13 @@
         <v>15</v>
       </c>
       <c r="G441" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H441" t="s">
         <v>17</v>
       </c>
       <c r="I441" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J441" t="s">
         <v>19</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B442">
         <v>12</v>
@@ -19394,13 +19394,13 @@
         <v>15</v>
       </c>
       <c r="G442" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H442" t="s">
         <v>17</v>
       </c>
       <c r="I442" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J442" t="s">
         <v>19</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B443">
         <v>16</v>
@@ -19429,13 +19429,13 @@
         <v>15</v>
       </c>
       <c r="G443" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H443" t="s">
         <v>17</v>
       </c>
       <c r="I443" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J443" t="s">
         <v>19</v>
@@ -19446,7 +19446,7 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B444">
         <v>16</v>
@@ -19464,13 +19464,13 @@
         <v>15</v>
       </c>
       <c r="G444" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H444" t="s">
         <v>17</v>
       </c>
       <c r="I444" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J444" t="s">
         <v>19</v>
@@ -19481,7 +19481,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B445">
         <v>16</v>
@@ -19499,13 +19499,13 @@
         <v>15</v>
       </c>
       <c r="G445" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H445" t="s">
         <v>17</v>
       </c>
       <c r="I445" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J445" t="s">
         <v>19</v>
@@ -19516,7 +19516,7 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B446">
         <v>16</v>
@@ -19534,13 +19534,13 @@
         <v>15</v>
       </c>
       <c r="G446" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H446" t="s">
         <v>17</v>
       </c>
       <c r="I446" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J446" t="s">
         <v>19</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B447">
         <v>12.5</v>
@@ -19569,13 +19569,13 @@
         <v>15</v>
       </c>
       <c r="G447" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H447" t="s">
         <v>17</v>
       </c>
       <c r="I447" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J447" t="s">
         <v>19</v>
@@ -19586,7 +19586,7 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B448">
         <v>10</v>
@@ -19604,7 +19604,7 @@
         <v>15</v>
       </c>
       <c r="G448" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H448" t="s">
         <v>17</v>
@@ -19619,7 +19619,7 @@
         <v>20</v>
       </c>
       <c r="M448" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N448" t="s">
         <v>28</v>
@@ -19627,7 +19627,7 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B449">
         <v>17</v>
@@ -19645,7 +19645,7 @@
         <v>15</v>
       </c>
       <c r="G449" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H449" t="s">
         <v>17</v>
@@ -19660,7 +19660,7 @@
         <v>20</v>
       </c>
       <c r="M449" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N449" t="s">
         <v>28</v>
@@ -19668,7 +19668,7 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B450">
         <v>24</v>
@@ -19701,7 +19701,7 @@
         <v>20</v>
       </c>
       <c r="L450" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M450" t="s">
         <v>103</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B451">
         <v>30</v>
@@ -19745,7 +19745,7 @@
         <v>20</v>
       </c>
       <c r="L451" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M451" t="s">
         <v>103</v>
@@ -19756,7 +19756,7 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B452">
         <v>28</v>
@@ -19774,7 +19774,7 @@
         <v>15</v>
       </c>
       <c r="G452" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H452" t="s">
         <v>17</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B453">
         <v>12</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B454">
         <v>12</v>
@@ -19870,7 +19870,7 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B455">
         <v>20</v>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B456">
         <v>16</v>
@@ -19958,7 +19958,7 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B457">
         <v>17</v>
@@ -19976,7 +19976,7 @@
         <v>15</v>
       </c>
       <c r="G457" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H457" t="s">
         <v>17</v>
@@ -19991,7 +19991,7 @@
         <v>20</v>
       </c>
       <c r="M457" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N457" t="s">
         <v>23</v>
@@ -19999,7 +19999,7 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B458">
         <v>12</v>
@@ -20017,7 +20017,7 @@
         <v>15</v>
       </c>
       <c r="G458" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H458" t="s">
         <v>17</v>
@@ -20032,7 +20032,7 @@
         <v>20</v>
       </c>
       <c r="M458" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N458" t="s">
         <v>23</v>
@@ -20040,7 +20040,7 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B459">
         <v>7</v>
@@ -20058,7 +20058,7 @@
         <v>15</v>
       </c>
       <c r="G459" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H459" t="s">
         <v>17</v>
@@ -20073,7 +20073,7 @@
         <v>20</v>
       </c>
       <c r="M459" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N459" t="s">
         <v>23</v>
@@ -20081,7 +20081,7 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B460">
         <v>28</v>
@@ -20099,7 +20099,7 @@
         <v>15</v>
       </c>
       <c r="G460" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H460" t="s">
         <v>17</v>
@@ -20116,7 +20116,7 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B461">
         <v>5</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B462">
         <v>10</v>
@@ -20198,7 +20198,7 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B463">
         <v>20</v>
@@ -20239,7 +20239,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B464">
         <v>28</v>
@@ -20257,7 +20257,7 @@
         <v>15</v>
       </c>
       <c r="G464" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H464" t="s">
         <v>17</v>
@@ -20274,7 +20274,7 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B465">
         <v>25</v>
@@ -20292,24 +20292,24 @@
         <v>15</v>
       </c>
       <c r="G465" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H465" t="s">
         <v>42</v>
       </c>
       <c r="I465" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K465" t="s">
         <v>44</v>
       </c>
       <c r="M465" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B466">
         <v>18.5</v>
@@ -20327,24 +20327,24 @@
         <v>15</v>
       </c>
       <c r="G466" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H466" t="s">
         <v>42</v>
       </c>
       <c r="I466" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K466" t="s">
         <v>44</v>
       </c>
       <c r="M466" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B467">
         <v>12</v>
@@ -20362,24 +20362,24 @@
         <v>15</v>
       </c>
       <c r="G467" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H467" t="s">
         <v>42</v>
       </c>
       <c r="I467" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K467" t="s">
         <v>44</v>
       </c>
       <c r="M467" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B468">
         <v>5</v>
@@ -20397,7 +20397,7 @@
         <v>15</v>
       </c>
       <c r="G468" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H468" t="s">
         <v>17</v>
@@ -20412,7 +20412,7 @@
         <v>20</v>
       </c>
       <c r="L468" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M468" t="s">
         <v>22</v>
@@ -20423,7 +20423,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B469">
         <v>10</v>
@@ -20441,7 +20441,7 @@
         <v>15</v>
       </c>
       <c r="G469" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H469" t="s">
         <v>17</v>
@@ -20456,7 +20456,7 @@
         <v>20</v>
       </c>
       <c r="L469" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M469" t="s">
         <v>22</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B470">
         <v>10</v>
@@ -20485,7 +20485,7 @@
         <v>15</v>
       </c>
       <c r="G470" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H470" t="s">
         <v>17</v>
@@ -20500,10 +20500,10 @@
         <v>20</v>
       </c>
       <c r="L470" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M470" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N470" t="s">
         <v>23</v>
@@ -20511,7 +20511,7 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B471">
         <v>12.5</v>
@@ -20529,7 +20529,7 @@
         <v>15</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H471" t="s">
         <v>17</v>
@@ -20544,10 +20544,10 @@
         <v>20</v>
       </c>
       <c r="L471" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M471" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N471" t="s">
         <v>23</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B472">
         <v>15</v>
@@ -20573,7 +20573,7 @@
         <v>15</v>
       </c>
       <c r="G472" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H472" t="s">
         <v>17</v>
@@ -20588,10 +20588,10 @@
         <v>20</v>
       </c>
       <c r="L472" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M472" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N472" t="s">
         <v>23</v>
@@ -20599,7 +20599,7 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B473">
         <v>19.5</v>
@@ -20617,7 +20617,7 @@
         <v>15</v>
       </c>
       <c r="G473" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H473" t="s">
         <v>17</v>
@@ -20632,10 +20632,10 @@
         <v>20</v>
       </c>
       <c r="L473" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M473" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N473" t="s">
         <v>23</v>
@@ -20643,7 +20643,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B474">
         <v>26.5</v>
@@ -20661,7 +20661,7 @@
         <v>15</v>
       </c>
       <c r="G474" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H474" t="s">
         <v>17</v>
@@ -20676,10 +20676,10 @@
         <v>20</v>
       </c>
       <c r="L474" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M474" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N474" t="s">
         <v>23</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B475">
         <v>28.6</v>
@@ -20705,7 +20705,7 @@
         <v>15</v>
       </c>
       <c r="G475" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H475" t="s">
         <v>17</v>
@@ -20720,10 +20720,10 @@
         <v>20</v>
       </c>
       <c r="L475" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M475" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N475" t="s">
         <v>23</v>
@@ -20731,7 +20731,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B476">
         <v>32</v>
@@ -20749,7 +20749,7 @@
         <v>15</v>
       </c>
       <c r="G476" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H476" t="s">
         <v>17</v>
@@ -20764,10 +20764,10 @@
         <v>20</v>
       </c>
       <c r="L476" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M476" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N476" t="s">
         <v>23</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B477">
         <v>5</v>
@@ -20816,7 +20816,7 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B478">
         <v>10</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B479">
         <v>20</v>
@@ -20898,7 +20898,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B480">
         <v>7</v>
@@ -20916,7 +20916,7 @@
         <v>15</v>
       </c>
       <c r="G480" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H480" t="s">
         <v>17</v>
@@ -20931,10 +20931,10 @@
         <v>20</v>
       </c>
       <c r="L480" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M480" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N480" t="s">
         <v>28</v>
@@ -20942,7 +20942,7 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B481">
         <v>14</v>
@@ -20960,7 +20960,7 @@
         <v>15</v>
       </c>
       <c r="G481" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H481" t="s">
         <v>17</v>
@@ -20975,10 +20975,10 @@
         <v>20</v>
       </c>
       <c r="L481" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M481" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N481" t="s">
         <v>28</v>
@@ -20986,7 +20986,7 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B482">
         <v>20</v>
@@ -21004,7 +21004,7 @@
         <v>15</v>
       </c>
       <c r="G482" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H482" t="s">
         <v>17</v>
@@ -21019,10 +21019,10 @@
         <v>20</v>
       </c>
       <c r="L482" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M482" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N482" t="s">
         <v>28</v>
@@ -21030,7 +21030,7 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B483">
         <v>5</v>
@@ -21048,7 +21048,7 @@
         <v>15</v>
       </c>
       <c r="G483" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H483" t="s">
         <v>17</v>
@@ -21063,10 +21063,10 @@
         <v>20</v>
       </c>
       <c r="L483" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M483" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N483" t="s">
         <v>28</v>
@@ -21074,7 +21074,7 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B484">
         <v>10</v>
@@ -21092,7 +21092,7 @@
         <v>15</v>
       </c>
       <c r="G484" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H484" t="s">
         <v>17</v>
@@ -21107,10 +21107,10 @@
         <v>20</v>
       </c>
       <c r="L484" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M484" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N484" t="s">
         <v>28</v>
@@ -21118,7 +21118,7 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B485">
         <v>20</v>
@@ -21136,7 +21136,7 @@
         <v>15</v>
       </c>
       <c r="G485" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H485" t="s">
         <v>17</v>
@@ -21151,10 +21151,10 @@
         <v>20</v>
       </c>
       <c r="L485" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M485" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N485" t="s">
         <v>28</v>
@@ -21162,7 +21162,7 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B486">
         <v>28</v>
@@ -21180,7 +21180,7 @@
         <v>15</v>
       </c>
       <c r="G486" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H486" t="s">
         <v>17</v>
@@ -21197,7 +21197,7 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B487">
         <v>8</v>
@@ -21215,7 +21215,7 @@
         <v>15</v>
       </c>
       <c r="G487" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H487" t="s">
         <v>17</v>
@@ -21230,7 +21230,7 @@
         <v>20</v>
       </c>
       <c r="L487" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M487" t="s">
         <v>22</v>
@@ -21241,7 +21241,7 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B488">
         <v>13</v>
@@ -21259,7 +21259,7 @@
         <v>15</v>
       </c>
       <c r="G488" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H488" t="s">
         <v>17</v>
@@ -21274,7 +21274,7 @@
         <v>20</v>
       </c>
       <c r="L488" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M488" t="s">
         <v>22</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B490">
         <v>8</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B491">
         <v>19</v>
@@ -21373,13 +21373,13 @@
         <v>15</v>
       </c>
       <c r="G491" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H491" t="s">
         <v>17</v>
       </c>
       <c r="I491" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J491" t="s">
         <v>143</v>
@@ -21390,7 +21390,7 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B492">
         <v>20</v>
@@ -21408,7 +21408,7 @@
         <v>15</v>
       </c>
       <c r="G492" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H492" t="s">
         <v>17</v>
@@ -21423,10 +21423,10 @@
         <v>20</v>
       </c>
       <c r="L492" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M492" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N492" t="s">
         <v>23</v>
@@ -21434,7 +21434,7 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B493">
         <v>30</v>
@@ -21452,7 +21452,7 @@
         <v>15</v>
       </c>
       <c r="G493" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H493" t="s">
         <v>17</v>
@@ -21467,10 +21467,10 @@
         <v>20</v>
       </c>
       <c r="L493" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M493" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N493" t="s">
         <v>23</v>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B494">
         <v>18</v>
@@ -21496,7 +21496,7 @@
         <v>15</v>
       </c>
       <c r="G494" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H494" t="s">
         <v>17</v>
@@ -21513,7 +21513,7 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B495">
         <v>18</v>
@@ -21546,7 +21546,7 @@
         <v>20</v>
       </c>
       <c r="L495" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M495" t="s">
         <v>126</v>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B496">
         <v>24</v>
@@ -21590,7 +21590,7 @@
         <v>20</v>
       </c>
       <c r="L496" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M496" t="s">
         <v>126</v>
@@ -21601,7 +21601,7 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B497">
         <v>12</v>
@@ -21634,7 +21634,7 @@
         <v>20</v>
       </c>
       <c r="L497" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M497" t="s">
         <v>126</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B498">
         <v>21</v>
@@ -21678,7 +21678,7 @@
         <v>20</v>
       </c>
       <c r="L498" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M498" t="s">
         <v>126</v>
@@ -21689,7 +21689,7 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B499">
         <v>15</v>
@@ -21722,7 +21722,7 @@
         <v>20</v>
       </c>
       <c r="L499" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M499" t="s">
         <v>126</v>
@@ -21733,7 +21733,7 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B500">
         <v>27</v>
@@ -21766,7 +21766,7 @@
         <v>20</v>
       </c>
       <c r="L500" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M500" t="s">
         <v>126</v>
@@ -21777,7 +21777,7 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B501">
         <v>28</v>
@@ -21795,7 +21795,7 @@
         <v>15</v>
       </c>
       <c r="G501" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H501" t="s">
         <v>17</v>
@@ -21812,7 +21812,7 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B502">
         <v>12.25</v>
@@ -21830,7 +21830,7 @@
         <v>15</v>
       </c>
       <c r="G502" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H502" t="s">
         <v>17</v>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B503">
         <v>13.05</v>
@@ -21874,7 +21874,7 @@
         <v>15</v>
       </c>
       <c r="G503" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H503" t="s">
         <v>17</v>
@@ -21900,7 +21900,7 @@
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B504">
         <v>14.55</v>
@@ -21918,7 +21918,7 @@
         <v>15</v>
       </c>
       <c r="G504" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H504" t="s">
         <v>17</v>
@@ -21944,7 +21944,7 @@
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B505">
         <v>15.45</v>
@@ -21962,7 +21962,7 @@
         <v>15</v>
       </c>
       <c r="G505" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H505" t="s">
         <v>17</v>
@@ -21988,7 +21988,7 @@
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B506">
         <v>16.95</v>
@@ -22006,7 +22006,7 @@
         <v>15</v>
       </c>
       <c r="G506" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H506" t="s">
         <v>17</v>
@@ -22032,7 +22032,7 @@
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B507">
         <v>18.350000000000001</v>
@@ -22050,7 +22050,7 @@
         <v>15</v>
       </c>
       <c r="G507" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H507" t="s">
         <v>17</v>
@@ -22076,7 +22076,7 @@
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B508">
         <v>28</v>
@@ -22094,7 +22094,7 @@
         <v>15</v>
       </c>
       <c r="G508" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H508" t="s">
         <v>17</v>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B509">
         <v>30</v>
@@ -22129,7 +22129,7 @@
         <v>15</v>
       </c>
       <c r="G509" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H509" t="s">
         <v>17</v>
@@ -22146,7 +22146,7 @@
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B510">
         <v>30</v>
@@ -22164,7 +22164,7 @@
         <v>15</v>
       </c>
       <c r="G510" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H510" t="s">
         <v>17</v>
@@ -22181,7 +22181,7 @@
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B511">
         <v>30</v>
@@ -22199,7 +22199,7 @@
         <v>15</v>
       </c>
       <c r="G511" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H511" t="s">
         <v>17</v>
@@ -22216,7 +22216,7 @@
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B512">
         <v>30</v>
@@ -22234,7 +22234,7 @@
         <v>15</v>
       </c>
       <c r="G512" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H512" t="s">
         <v>17</v>
@@ -22251,7 +22251,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B513">
         <v>30</v>
@@ -22269,7 +22269,7 @@
         <v>15</v>
       </c>
       <c r="G513" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H513" t="s">
         <v>17</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B514">
         <v>30</v>
@@ -22304,7 +22304,7 @@
         <v>15</v>
       </c>
       <c r="G514" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H514" t="s">
         <v>17</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B515">
         <v>28</v>
@@ -22339,7 +22339,7 @@
         <v>15</v>
       </c>
       <c r="G515" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>17</v>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B516">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>15</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H516" t="s">
         <v>17</v>
@@ -22392,7 +22392,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B517">
         <v>9</v>
@@ -22411,7 +22411,7 @@
         <v>15</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H517" t="s">
         <v>17</v>
@@ -22428,7 +22428,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B518">
         <v>9</v>
@@ -22447,7 +22447,7 @@
         <v>15</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H518" t="s">
         <v>17</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B519">
         <v>10</v>
@@ -22482,7 +22482,7 @@
         <v>15</v>
       </c>
       <c r="G519" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H519" t="s">
         <v>17</v>
@@ -22499,7 +22499,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B520">
         <v>12</v>
@@ -22517,7 +22517,7 @@
         <v>15</v>
       </c>
       <c r="G520" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H520" t="s">
         <v>17</v>
@@ -22534,7 +22534,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B521">
         <v>12.5</v>
@@ -22552,7 +22552,7 @@
         <v>15</v>
       </c>
       <c r="G521" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H521" t="s">
         <v>17</v>
@@ -22569,7 +22569,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B522">
         <v>12</v>
@@ -22587,7 +22587,7 @@
         <v>15</v>
       </c>
       <c r="G522" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H522" t="s">
         <v>17</v>
@@ -22604,7 +22604,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B523">
         <v>12</v>
@@ -22622,7 +22622,7 @@
         <v>15</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H523" t="s">
         <v>17</v>
